--- a/GetData/WeeklyReport/data(v1.0).xlsx
+++ b/GetData/WeeklyReport/data(v1.0).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf76493bb23050a9/r/kanggle/Project/cdc/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A0DCFCBF-C84B-46DB-9DE3-D2D02D2D7DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{286CFF46-1928-4D0B-A5E1-518ED6BFBD97}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF8024C-582C-4801-ABDE-0B4A1974AAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5904" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6186" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -1154,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5900"/>
+  <dimension ref="A1:E6182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A5875" workbookViewId="0">
+      <selection activeCell="B5901" sqref="B5901:E6182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -101465,6 +101465,3954 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5901" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5901" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5901" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5901">
+        <v>755623</v>
+      </c>
+      <c r="E5901">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="5902" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5902" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5902" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5902">
+        <v>336971</v>
+      </c>
+      <c r="E5902">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="5903" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5903" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5903" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5903">
+        <v>0</v>
+      </c>
+      <c r="E5903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5904" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5904" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5904" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5904">
+        <v>11</v>
+      </c>
+      <c r="E5904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5905" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5905" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5905" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5905">
+        <v>0</v>
+      </c>
+      <c r="E5905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5906" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5906" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5906" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5906">
+        <v>4085</v>
+      </c>
+      <c r="E5906">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="5907" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5907" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5907" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5907">
+        <v>124336</v>
+      </c>
+      <c r="E5907">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5908" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5908" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5908" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5908">
+        <v>2105</v>
+      </c>
+      <c r="E5908">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5909" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5909" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5909" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5909">
+        <v>97401</v>
+      </c>
+      <c r="E5909">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5910" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5910" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5910" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5910">
+        <v>19446</v>
+      </c>
+      <c r="E5910">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5911" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5911" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5911" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5911">
+        <v>1938</v>
+      </c>
+      <c r="E5911">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5912" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5912" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5912" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5912">
+        <v>3446</v>
+      </c>
+      <c r="E5912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5913" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5913" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5913" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5913">
+        <v>0</v>
+      </c>
+      <c r="E5913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5914" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5914" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5914" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5914">
+        <v>0</v>
+      </c>
+      <c r="E5914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5915" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5915" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5915" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5915">
+        <v>379</v>
+      </c>
+      <c r="E5915">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5916" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5916" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5916" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5916">
+        <v>2619</v>
+      </c>
+      <c r="E5916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5917" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5917" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5917" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5917">
+        <v>1023</v>
+      </c>
+      <c r="E5917">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5918" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5918" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5918" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5918">
+        <v>106</v>
+      </c>
+      <c r="E5918">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5919" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5919" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5919" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5919">
+        <v>355</v>
+      </c>
+      <c r="E5919">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5920" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5920" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5920" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5920">
+        <v>143</v>
+      </c>
+      <c r="E5920">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5921" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5921" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5921" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5921">
+        <v>29</v>
+      </c>
+      <c r="E5921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5922" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5922" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5922" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5922">
+        <v>28356</v>
+      </c>
+      <c r="E5922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5923" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5923" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5923" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5923">
+        <v>113531</v>
+      </c>
+      <c r="E5923">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5924" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5924" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5924" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5924">
+        <v>1799</v>
+      </c>
+      <c r="E5924">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5925" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5925" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5925" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5925">
+        <v>6</v>
+      </c>
+      <c r="E5925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5926" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5926" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5926" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5926">
+        <v>241</v>
+      </c>
+      <c r="E5926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5927" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5927" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5927" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5927">
+        <v>0</v>
+      </c>
+      <c r="E5927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5928" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5928" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5928" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5928">
+        <v>47</v>
+      </c>
+      <c r="E5928">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5929" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5929" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5929" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5929">
+        <v>2389</v>
+      </c>
+      <c r="E5929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5930" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5930" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5930" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5930">
+        <v>5474</v>
+      </c>
+      <c r="E5930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5931" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5931" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5931" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5931">
+        <v>9536</v>
+      </c>
+      <c r="E5931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5932" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5932" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5932" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5932">
+        <v>41227</v>
+      </c>
+      <c r="E5932">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5933" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5933" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5933" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5933">
+        <v>29</v>
+      </c>
+      <c r="E5933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5934" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5934" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5934" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5934">
+        <v>567</v>
+      </c>
+      <c r="E5934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5935" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5935" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5935" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5935">
+        <v>683</v>
+      </c>
+      <c r="E5935">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5936" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5936" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5936" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5936">
+        <v>418652</v>
+      </c>
+      <c r="E5936">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5937" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5937" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5937" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5937">
+        <v>5338</v>
+      </c>
+      <c r="E5937">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5938" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5938" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5938" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5938">
+        <v>35854</v>
+      </c>
+      <c r="E5938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5939" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5939" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5939" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5939">
+        <v>1299</v>
+      </c>
+      <c r="E5939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5940" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5940" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5940" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5940">
+        <v>4303</v>
+      </c>
+      <c r="E5940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5941" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5941" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5941" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5941">
+        <v>100</v>
+      </c>
+      <c r="E5941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5942" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5942" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5942" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5942">
+        <v>222</v>
+      </c>
+      <c r="E5942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5943" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5943" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5943" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5943">
+        <v>16</v>
+      </c>
+      <c r="E5943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5944" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5944" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5944" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5944">
+        <v>326</v>
+      </c>
+      <c r="E5944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5945" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5945" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5945" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5945">
+        <v>0</v>
+      </c>
+      <c r="E5945">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5946" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5946" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5946" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5946">
+        <v>101787</v>
+      </c>
+      <c r="E5946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5947" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5947" s="1">
+        <v>41456</v>
+      </c>
+      <c r="C5947" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5947">
+        <v>269407</v>
+      </c>
+      <c r="E5947">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5948" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5948" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5948" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5948">
+        <v>619396</v>
+      </c>
+      <c r="E5948">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="5949" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5949" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5949" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5949">
+        <v>323931</v>
+      </c>
+      <c r="E5949">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="5950" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5950" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5950" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5950">
+        <v>0</v>
+      </c>
+      <c r="E5950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5951" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5951" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5951" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5951">
+        <v>10</v>
+      </c>
+      <c r="E5951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5952" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5952" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5952" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5952">
+        <v>0</v>
+      </c>
+      <c r="E5952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5953" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5953" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5953" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5953">
+        <v>3878</v>
+      </c>
+      <c r="E5953">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="5954" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5954" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5954" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5954">
+        <v>123503</v>
+      </c>
+      <c r="E5954">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5955" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5955" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5955" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5955">
+        <v>2121</v>
+      </c>
+      <c r="E5955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5956" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5956" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5956" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5956">
+        <v>97430</v>
+      </c>
+      <c r="E5956">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5957" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5957" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5957" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5957">
+        <v>19473</v>
+      </c>
+      <c r="E5957">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5958" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5958" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5958" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5958">
+        <v>1999</v>
+      </c>
+      <c r="E5958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5959" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5959" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5959" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5959">
+        <v>3490</v>
+      </c>
+      <c r="E5959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5960" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5960" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5960" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5960">
+        <v>0</v>
+      </c>
+      <c r="E5960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5961" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5961" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5961" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5961">
+        <v>0</v>
+      </c>
+      <c r="E5961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5962" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5962" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5962" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5962">
+        <v>214</v>
+      </c>
+      <c r="E5962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5963" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5963" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5963" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5963">
+        <v>2164</v>
+      </c>
+      <c r="E5963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5964" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5964" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5964" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5964">
+        <v>592</v>
+      </c>
+      <c r="E5964">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5965" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5965" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5965" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5965">
+        <v>108</v>
+      </c>
+      <c r="E5965">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5966" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5966" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5966" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5966">
+        <v>734</v>
+      </c>
+      <c r="E5966">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5967" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5967" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5967" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5967">
+        <v>674</v>
+      </c>
+      <c r="E5967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5968" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5968" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5968" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5968">
+        <v>22</v>
+      </c>
+      <c r="E5968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5969" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5969" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5969" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5969">
+        <v>27699</v>
+      </c>
+      <c r="E5969">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5970" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5970" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5970" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5970">
+        <v>107051</v>
+      </c>
+      <c r="E5970">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5971" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5971" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5971" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5971">
+        <v>1676</v>
+      </c>
+      <c r="E5971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5972" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5972" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5972" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5972">
+        <v>7</v>
+      </c>
+      <c r="E5972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5973" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5973" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5973" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5973">
+        <v>255</v>
+      </c>
+      <c r="E5973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5974" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5974" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5974" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5974">
+        <v>0</v>
+      </c>
+      <c r="E5974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5975" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5975" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5975" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5975">
+        <v>52</v>
+      </c>
+      <c r="E5975">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5976" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5976" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5976" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5976">
+        <v>1168</v>
+      </c>
+      <c r="E5976">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5977" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5977" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5977" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5977">
+        <v>4561</v>
+      </c>
+      <c r="E5977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5978" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5978" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5978" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5978">
+        <v>9354</v>
+      </c>
+      <c r="E5978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5979" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5979" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5979" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5979">
+        <v>39394</v>
+      </c>
+      <c r="E5979">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5980" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5980" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5980" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5980">
+        <v>55</v>
+      </c>
+      <c r="E5980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5981" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5981" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5981" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5981">
+        <v>492</v>
+      </c>
+      <c r="E5981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5982" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5982" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5982" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5982">
+        <v>288</v>
+      </c>
+      <c r="E5982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5983" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5983" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5983" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5983">
+        <v>295465</v>
+      </c>
+      <c r="E5983">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5984" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5984" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5984" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5984">
+        <v>6098</v>
+      </c>
+      <c r="E5984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5985" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5985" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5985" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5985">
+        <v>19596</v>
+      </c>
+      <c r="E5985">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5986" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5986" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5986" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5986">
+        <v>745</v>
+      </c>
+      <c r="E5986">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5987" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5987" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5987" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5987">
+        <v>3960</v>
+      </c>
+      <c r="E5987">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5988" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5988" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5988" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5988">
+        <v>74</v>
+      </c>
+      <c r="E5988">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5989" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5989" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5989" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5989">
+        <v>236</v>
+      </c>
+      <c r="E5989">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5990" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5990" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5990" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5990">
+        <v>13</v>
+      </c>
+      <c r="E5990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5991" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5991" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5991" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5991">
+        <v>366</v>
+      </c>
+      <c r="E5991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5992" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5992" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5992" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5992">
+        <v>0</v>
+      </c>
+      <c r="E5992">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5993" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5993" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5993" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5993">
+        <v>106514</v>
+      </c>
+      <c r="E5993">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5994" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5994" s="1">
+        <v>41487</v>
+      </c>
+      <c r="C5994" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5994">
+        <v>157963</v>
+      </c>
+      <c r="E5994">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5995" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5995" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C5995" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5995">
+        <v>743216</v>
+      </c>
+      <c r="E5995">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="5996" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5996" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C5996" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5996">
+        <v>306236</v>
+      </c>
+      <c r="E5996">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="5997" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5997" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C5997" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5997">
+        <v>0</v>
+      </c>
+      <c r="E5997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5998" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5998" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C5998" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5998">
+        <v>6</v>
+      </c>
+      <c r="E5998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5999" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5999" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C5999" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5999">
+        <v>0</v>
+      </c>
+      <c r="E5999">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6000" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6000" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6000" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6000">
+        <v>4122</v>
+      </c>
+      <c r="E6000">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="6001" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6001" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6001" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6001">
+        <v>110652</v>
+      </c>
+      <c r="E6001">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6002" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6002" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6002" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6002">
+        <v>1666</v>
+      </c>
+      <c r="E6002">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6003" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6003" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6003" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6003">
+        <v>86335</v>
+      </c>
+      <c r="E6003">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6004" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6004" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6004" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6004">
+        <v>17610</v>
+      </c>
+      <c r="E6004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6005" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6005" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6005" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6005">
+        <v>1880</v>
+      </c>
+      <c r="E6005">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6006" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6006" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6006" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6006">
+        <v>3161</v>
+      </c>
+      <c r="E6006">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6007" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6007" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6007" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6007">
+        <v>0</v>
+      </c>
+      <c r="E6007">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6008" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6008" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6008" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6008">
+        <v>0</v>
+      </c>
+      <c r="E6008">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6009" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6009" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6009" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6009">
+        <v>624</v>
+      </c>
+      <c r="E6009">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6010" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6010" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6010" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6010">
+        <v>3211</v>
+      </c>
+      <c r="E6010">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6011" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6011" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6011" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6011">
+        <v>1260</v>
+      </c>
+      <c r="E6011">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6012" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6012" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6012" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6012">
+        <v>98</v>
+      </c>
+      <c r="E6012">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6013" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6013" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6013" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6013">
+        <v>58</v>
+      </c>
+      <c r="E6013">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6014" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6014" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6014" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6014">
+        <v>20</v>
+      </c>
+      <c r="E6014">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6015" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6015" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6015" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6015">
+        <v>15</v>
+      </c>
+      <c r="E6015">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6016" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6016" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6016" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6016">
+        <v>22334</v>
+      </c>
+      <c r="E6016">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6017" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6017" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6017" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6017">
+        <v>106546</v>
+      </c>
+      <c r="E6017">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6018" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6018" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6018" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6018">
+        <v>1499</v>
+      </c>
+      <c r="E6018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6019" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6019" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6019" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6019">
+        <v>15</v>
+      </c>
+      <c r="E6019">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6020" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6020" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6020" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6020">
+        <v>149</v>
+      </c>
+      <c r="E6020">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6021" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6021" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6021" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6021">
+        <v>0</v>
+      </c>
+      <c r="E6021">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6022" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6022" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6022" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6022">
+        <v>44</v>
+      </c>
+      <c r="E6022">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6023" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6023" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6023" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6023">
+        <v>4226</v>
+      </c>
+      <c r="E6023">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6024" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6024" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6024" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6024">
+        <v>5637</v>
+      </c>
+      <c r="E6024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6025" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6025" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6025" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6025">
+        <v>8187</v>
+      </c>
+      <c r="E6025">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6026" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6026" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6026" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6026">
+        <v>36224</v>
+      </c>
+      <c r="E6026">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6027" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6027" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6027" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6027">
+        <v>19</v>
+      </c>
+      <c r="E6027">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6028" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6028" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6028" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6028">
+        <v>408</v>
+      </c>
+      <c r="E6028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6029" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6029" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6029" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6029">
+        <v>882</v>
+      </c>
+      <c r="E6029">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6030" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6030" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6030" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6030">
+        <v>436980</v>
+      </c>
+      <c r="E6030">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6031" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6031" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6031" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6031">
+        <v>6254</v>
+      </c>
+      <c r="E6031">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6032" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6032" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6032" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6032">
+        <v>43512</v>
+      </c>
+      <c r="E6032">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6033" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6033" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6033" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6033">
+        <v>2406</v>
+      </c>
+      <c r="E6033">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6034" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6034" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6034" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6034">
+        <v>3767</v>
+      </c>
+      <c r="E6034">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6035" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6035" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6035" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6035">
+        <v>93</v>
+      </c>
+      <c r="E6035">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6036" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6036" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6036" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6036">
+        <v>180</v>
+      </c>
+      <c r="E6036">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6037" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6037" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6037" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6037">
+        <v>19</v>
+      </c>
+      <c r="E6037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6038" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6038" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6038" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6038">
+        <v>269</v>
+      </c>
+      <c r="E6038">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6039" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6039" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6039" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6039">
+        <v>0</v>
+      </c>
+      <c r="E6039">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6040" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6040" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6040" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6040">
+        <v>79064</v>
+      </c>
+      <c r="E6040">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6041" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6041" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C6041" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6041">
+        <v>301416</v>
+      </c>
+      <c r="E6041">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6042" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6042" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6042" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6042">
+        <v>721605</v>
+      </c>
+      <c r="E6042">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="6043" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6043" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6043" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6043">
+        <v>337231</v>
+      </c>
+      <c r="E6043">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="6044" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6044" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6044" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6044">
+        <v>0</v>
+      </c>
+      <c r="E6044">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6045" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6045" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6045" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6045">
+        <v>8</v>
+      </c>
+      <c r="E6045">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6046" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6046" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6046" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6046">
+        <v>0</v>
+      </c>
+      <c r="E6046">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6047" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6047" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6047" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6047">
+        <v>3913</v>
+      </c>
+      <c r="E6047">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="6048" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6048" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6048" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6048">
+        <v>125243</v>
+      </c>
+      <c r="E6048">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6049" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6049" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6049" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6049">
+        <v>1908</v>
+      </c>
+      <c r="E6049">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6050" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6050" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6050" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6050">
+        <v>96978</v>
+      </c>
+      <c r="E6050">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6051" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6051" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6051" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6051">
+        <v>20405</v>
+      </c>
+      <c r="E6051">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6052" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6052" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6052" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6052">
+        <v>2536</v>
+      </c>
+      <c r="E6052">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6053" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6053" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6053" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6053">
+        <v>3416</v>
+      </c>
+      <c r="E6053">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6054" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6054" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6054" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6054">
+        <v>0</v>
+      </c>
+      <c r="E6054">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6055" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6055" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6055" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6055">
+        <v>0</v>
+      </c>
+      <c r="E6055">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6056" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6056" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6056" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6056">
+        <v>1379</v>
+      </c>
+      <c r="E6056">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6057" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6057" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6057" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6057">
+        <v>5240</v>
+      </c>
+      <c r="E6057">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6058" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6058" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6058" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6058">
+        <v>1318</v>
+      </c>
+      <c r="E6058">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6059" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6059" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6059" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6059">
+        <v>97</v>
+      </c>
+      <c r="E6059">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6060" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6060" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6060" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6060">
+        <v>7</v>
+      </c>
+      <c r="E6060">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6061" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6061" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6061" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6061">
+        <v>24</v>
+      </c>
+      <c r="E6061">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6062" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6062" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6062" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6062">
+        <v>16</v>
+      </c>
+      <c r="E6062">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6063" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6063" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6063" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6063">
+        <v>16364</v>
+      </c>
+      <c r="E6063">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6064" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6064" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6064" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6064">
+        <v>122172</v>
+      </c>
+      <c r="E6064">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6065" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6065" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6065" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6065">
+        <v>1314</v>
+      </c>
+      <c r="E6065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6066" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6066" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6066" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6066">
+        <v>21</v>
+      </c>
+      <c r="E6066">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6067" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6067" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6067" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6067">
+        <v>134</v>
+      </c>
+      <c r="E6067">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6068" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6068" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6068" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6068">
+        <v>0</v>
+      </c>
+      <c r="E6068">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6069" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6069" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6069" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6069">
+        <v>39</v>
+      </c>
+      <c r="E6069">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6070" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6070" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6070" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6070">
+        <v>4600</v>
+      </c>
+      <c r="E6070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6071" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6071" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6071" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6071">
+        <v>6088</v>
+      </c>
+      <c r="E6071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6072" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6072" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6072" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6072">
+        <v>8521</v>
+      </c>
+      <c r="E6072">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6073" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6073" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6073" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6073">
+        <v>39930</v>
+      </c>
+      <c r="E6073">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6074" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6074" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6074" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6074">
+        <v>10</v>
+      </c>
+      <c r="E6074">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6075" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6075" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6075" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6075">
+        <v>388</v>
+      </c>
+      <c r="E6075">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6076" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6076" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6076" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6076">
+        <v>405</v>
+      </c>
+      <c r="E6076">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6077" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6077" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6077" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6077">
+        <v>384374</v>
+      </c>
+      <c r="E6077">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6078" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6078" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6078" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6078">
+        <v>9006</v>
+      </c>
+      <c r="E6078">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6079" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6079" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6079" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6079">
+        <v>45354</v>
+      </c>
+      <c r="E6079">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6080" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6080" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6080" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6080">
+        <v>3804</v>
+      </c>
+      <c r="E6080">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6081" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6081" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6081" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6081">
+        <v>3544</v>
+      </c>
+      <c r="E6081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6082" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6082" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6082" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6082">
+        <v>121</v>
+      </c>
+      <c r="E6082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6083" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6083" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6083" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6083">
+        <v>200</v>
+      </c>
+      <c r="E6083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6084" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6084" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6084" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6084">
+        <v>17</v>
+      </c>
+      <c r="E6084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6085" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6085" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6085" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6085">
+        <v>367</v>
+      </c>
+      <c r="E6085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6086" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6086" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6086" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6086">
+        <v>0</v>
+      </c>
+      <c r="E6086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6087" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6087" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6087" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6087">
+        <v>66449</v>
+      </c>
+      <c r="E6087">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6088" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6088" s="1">
+        <v>41395</v>
+      </c>
+      <c r="C6088" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6088">
+        <v>255512</v>
+      </c>
+      <c r="E6088">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6089" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6089" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6089" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6089">
+        <v>611580</v>
+      </c>
+      <c r="E6089">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="6090" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6090" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6090" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6090">
+        <v>327876</v>
+      </c>
+      <c r="E6090">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="6091" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6091" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6091" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6091">
+        <v>0</v>
+      </c>
+      <c r="E6091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6092" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6092" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6092" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6092">
+        <v>0</v>
+      </c>
+      <c r="E6092">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6093" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6093" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6093" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6093">
+        <v>0</v>
+      </c>
+      <c r="E6093">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6094" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6094" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6094" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6094">
+        <v>3806</v>
+      </c>
+      <c r="E6094">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="6095" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6095" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6095" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6095">
+        <v>125950</v>
+      </c>
+      <c r="E6095">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6096" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6096" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6096" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6096">
+        <v>1830</v>
+      </c>
+      <c r="E6096">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6097" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6097" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6097" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6097">
+        <v>97225</v>
+      </c>
+      <c r="E6097">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6098" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6098" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6098" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6098">
+        <v>20382</v>
+      </c>
+      <c r="E6098">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6099" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6099" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6099" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6099">
+        <v>3100</v>
+      </c>
+      <c r="E6099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6100" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6100" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6100">
+        <v>3413</v>
+      </c>
+      <c r="E6100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6101" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6101">
+        <v>0</v>
+      </c>
+      <c r="E6101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6102" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6102">
+        <v>0</v>
+      </c>
+      <c r="E6102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6103" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6103" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6103">
+        <v>2766</v>
+      </c>
+      <c r="E6103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6104" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6104">
+        <v>5063</v>
+      </c>
+      <c r="E6104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6105" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6105">
+        <v>1081</v>
+      </c>
+      <c r="E6105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6106" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6106">
+        <v>77</v>
+      </c>
+      <c r="E6106">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6107" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6107" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6107">
+        <v>1</v>
+      </c>
+      <c r="E6107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6108" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6108">
+        <v>23</v>
+      </c>
+      <c r="E6108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6109" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6109">
+        <v>16</v>
+      </c>
+      <c r="E6109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6110" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6110">
+        <v>11782</v>
+      </c>
+      <c r="E6110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6111" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6111" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6111">
+        <v>121701</v>
+      </c>
+      <c r="E6111">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6112" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6112">
+        <v>1060</v>
+      </c>
+      <c r="E6112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6113" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6113">
+        <v>39</v>
+      </c>
+      <c r="E6113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6114" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6114">
+        <v>115</v>
+      </c>
+      <c r="E6114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6115" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6115">
+        <v>0</v>
+      </c>
+      <c r="E6115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6116" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6116" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6116">
+        <v>45</v>
+      </c>
+      <c r="E6116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6117" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6117">
+        <v>3073</v>
+      </c>
+      <c r="E6117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6118" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6118" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6118">
+        <v>5038</v>
+      </c>
+      <c r="E6118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6119" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6119" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6119">
+        <v>7818</v>
+      </c>
+      <c r="E6119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6120" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6120" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6120">
+        <v>37418</v>
+      </c>
+      <c r="E6120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6121" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6121">
+        <v>4</v>
+      </c>
+      <c r="E6121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6122" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6122" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6122">
+        <v>646</v>
+      </c>
+      <c r="E6122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6123" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6123" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6123">
+        <v>354</v>
+      </c>
+      <c r="E6123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6124" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6124" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6124">
+        <v>283704</v>
+      </c>
+      <c r="E6124">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6125" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6125" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6125">
+        <v>10844</v>
+      </c>
+      <c r="E6125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6126" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6126" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6126">
+        <v>37748</v>
+      </c>
+      <c r="E6126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6127" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6127" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6127">
+        <v>3088</v>
+      </c>
+      <c r="E6127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6128" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6128" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6128">
+        <v>3089</v>
+      </c>
+      <c r="E6128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6129" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6129" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6129">
+        <v>92</v>
+      </c>
+      <c r="E6129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6130" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6130" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6130">
+        <v>112</v>
+      </c>
+      <c r="E6130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6131" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6131" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6131">
+        <v>16</v>
+      </c>
+      <c r="E6131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6132" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6132" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6132">
+        <v>343</v>
+      </c>
+      <c r="E6132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6133" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6133" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6133">
+        <v>0</v>
+      </c>
+      <c r="E6133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6134" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6134">
+        <v>55487</v>
+      </c>
+      <c r="E6134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6135" s="1">
+        <v>41365</v>
+      </c>
+      <c r="C6135" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6135">
+        <v>172885</v>
+      </c>
+      <c r="E6135">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6136" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6136">
+        <v>521046</v>
+      </c>
+      <c r="E6136">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="6137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6137" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6137">
+        <v>341736</v>
+      </c>
+      <c r="E6137">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="6138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6138" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6138">
+        <v>0</v>
+      </c>
+      <c r="E6138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6139" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6139">
+        <v>0</v>
+      </c>
+      <c r="E6139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6140" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6140">
+        <v>0</v>
+      </c>
+      <c r="E6140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6141" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6141">
+        <v>4295</v>
+      </c>
+      <c r="E6141">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6142" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6142">
+        <v>139190</v>
+      </c>
+      <c r="E6142">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6143" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6143">
+        <v>1951</v>
+      </c>
+      <c r="E6143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6144" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6144">
+        <v>107535</v>
+      </c>
+      <c r="E6144">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6145" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6145">
+        <v>21980</v>
+      </c>
+      <c r="E6145">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6146" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6146">
+        <v>3972</v>
+      </c>
+      <c r="E6146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6147" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6147" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6147">
+        <v>3752</v>
+      </c>
+      <c r="E6147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6148" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6148" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6148">
+        <v>0</v>
+      </c>
+      <c r="E6148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6149" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6149" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6149">
+        <v>0</v>
+      </c>
+      <c r="E6149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6150" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6150" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6150">
+        <v>2066</v>
+      </c>
+      <c r="E6150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6151" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6151" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6151">
+        <v>3930</v>
+      </c>
+      <c r="E6151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6152" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6152" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6152">
+        <v>998</v>
+      </c>
+      <c r="E6152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6153" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6153" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6153">
+        <v>90</v>
+      </c>
+      <c r="E6153">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6154" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6154" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6154">
+        <v>6</v>
+      </c>
+      <c r="E6154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6155" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6155" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6155">
+        <v>14</v>
+      </c>
+      <c r="E6155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6156" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6156" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6156">
+        <v>13</v>
+      </c>
+      <c r="E6156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6157" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6157">
+        <v>9984</v>
+      </c>
+      <c r="E6157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6158" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6158" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6158">
+        <v>125549</v>
+      </c>
+      <c r="E6158">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6159" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6159">
+        <v>901</v>
+      </c>
+      <c r="E6159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6160" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6160" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6160">
+        <v>39</v>
+      </c>
+      <c r="E6160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6161" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6161" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6161">
+        <v>144</v>
+      </c>
+      <c r="E6161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6162" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6162" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6162">
+        <v>0</v>
+      </c>
+      <c r="E6162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6163" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6163" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6163">
+        <v>39</v>
+      </c>
+      <c r="E6163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6164" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6164" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6164">
+        <v>2090</v>
+      </c>
+      <c r="E6164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6165" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6165" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6165">
+        <v>1119</v>
+      </c>
+      <c r="E6165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6166" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6166" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6166">
+        <v>7532</v>
+      </c>
+      <c r="E6166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6167" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6167" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6167">
+        <v>39190</v>
+      </c>
+      <c r="E6167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6168" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6168" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6168">
+        <v>3</v>
+      </c>
+      <c r="E6168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6169" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6169" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6169">
+        <v>705</v>
+      </c>
+      <c r="E6169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6170" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6170" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6170">
+        <v>194</v>
+      </c>
+      <c r="E6170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6171" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6171" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6171">
+        <v>179310</v>
+      </c>
+      <c r="E6171">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6172" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6172" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6172">
+        <v>10781</v>
+      </c>
+      <c r="E6172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6173" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6173" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6173">
+        <v>24099</v>
+      </c>
+      <c r="E6173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6174" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6174" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6174">
+        <v>2063</v>
+      </c>
+      <c r="E6174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6175" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6175" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6175">
+        <v>2663</v>
+      </c>
+      <c r="E6175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6176" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6176" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6176" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6176">
+        <v>124</v>
+      </c>
+      <c r="E6176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6177" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6177" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6177" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6177">
+        <v>103</v>
+      </c>
+      <c r="E6177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6178" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6178" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6178">
+        <v>20</v>
+      </c>
+      <c r="E6178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6179" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6179" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6179">
+        <v>401</v>
+      </c>
+      <c r="E6179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6180" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6180" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6180">
+        <v>0</v>
+      </c>
+      <c r="E6180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6181" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6181" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6181" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6181">
+        <v>55808</v>
+      </c>
+      <c r="E6181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6182" s="1">
+        <v>41334</v>
+      </c>
+      <c r="C6182" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6182">
+        <v>83264</v>
+      </c>
+      <c r="E6182">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E5900" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
